--- a/data/telegram_info.xlsx
+++ b/data/telegram_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,7 +455,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -464,259 +464,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tue Feb 21 13:57:27 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>JisatsuAn</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Tue Feb 21 14:32:13 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>JisatsuAn</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Tue Feb 21 15:25:58 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>JisatsuAn</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Tue Feb 21 15:26:54 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>JisatsuAn</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Tue Feb 21 15:27:23 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>JisatsuAn</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Tue Feb 21 15:27:43 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>JisatsuAn</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Tue Feb 21 15:28:26 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>JisatsuAn</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Tue Feb 21 15:30:39 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>JisatsuAn</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Tue Feb 21 15:31:36 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>JisatsuAn</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Tue Feb 21 15:32:24 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>JisatsuAn</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Tue Feb 21 15:33:53 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>12</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>JisatsuAn</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Tue Feb 21 15:34:29 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>13</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>JisatsuAn</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Tue Feb 21 15:35:58 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>14</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>JisatsuAn</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Tue Feb 21 15:37:03 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>JisatsuAn</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Tue Feb 21 16:12:23 2023</t>
+          <t>Tue Feb 21 17:44:35 2023</t>
         </is>
       </c>
     </row>
